--- a/sitedb/smallcell data/site data.xlsx
+++ b/sitedb/smallcell data/site data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\018 MongoDB\03 withmysql\VHA RAN Refresh\Django-Workflow\sitedb\smallcell data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\005 VHA Macro site workflow\Django-Workflow\sitedb\smallcell data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815F514-DE29-4813-B0E5-C6DA93898F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB2FE4-1EB6-45A0-AB44-4D6662C1A21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7584F600-75EC-4451-A4AD-41A138A88D92}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7584F600-75EC-4451-A4AD-41A138A88D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$523</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1456">
   <si>
     <t>Site ID</t>
   </si>
@@ -4213,6 +4204,234 @@
   </si>
   <si>
     <t>Hampton SC042</t>
+  </si>
+  <si>
+    <t>P18931-E</t>
+  </si>
+  <si>
+    <t>Energex</t>
+  </si>
+  <si>
+    <t>Brisbane CBD SC043</t>
+  </si>
+  <si>
+    <t>P13169-G</t>
+  </si>
+  <si>
+    <t>Paddington SC008</t>
+  </si>
+  <si>
+    <t>P21100-D</t>
+  </si>
+  <si>
+    <t>Paddington SC012</t>
+  </si>
+  <si>
+    <t>P45905-B</t>
+  </si>
+  <si>
+    <t>Paddington SC023</t>
+  </si>
+  <si>
+    <t>P2165-M</t>
+  </si>
+  <si>
+    <t>Paddington SC025</t>
+  </si>
+  <si>
+    <t>P20474-F</t>
+  </si>
+  <si>
+    <t>Brisbane CBD SC055</t>
+  </si>
+  <si>
+    <t>P15063-E</t>
+  </si>
+  <si>
+    <t>Paddington SC052</t>
+  </si>
+  <si>
+    <t>P48879-C</t>
+  </si>
+  <si>
+    <t>Paddington SC055</t>
+  </si>
+  <si>
+    <t>P666771</t>
+  </si>
+  <si>
+    <t>Paddington SC061</t>
+  </si>
+  <si>
+    <t>P381370</t>
+  </si>
+  <si>
+    <t>Paddington SC062</t>
+  </si>
+  <si>
+    <t>P26209-F</t>
+  </si>
+  <si>
+    <t>Paddington SC063</t>
+  </si>
+  <si>
+    <t>P1300-M</t>
+  </si>
+  <si>
+    <t>Paddington SC064</t>
+  </si>
+  <si>
+    <t>P1570-J</t>
+  </si>
+  <si>
+    <t>Paddington SC066</t>
+  </si>
+  <si>
+    <t>P1328758</t>
+  </si>
+  <si>
+    <t>Paddington SC068</t>
+  </si>
+  <si>
+    <t>P41788-D</t>
+  </si>
+  <si>
+    <t>Paddington SC069</t>
+  </si>
+  <si>
+    <t>P894-M</t>
+  </si>
+  <si>
+    <t>Paddington SC070</t>
+  </si>
+  <si>
+    <t>P32958-E</t>
+  </si>
+  <si>
+    <t>Paddington SC072</t>
+  </si>
+  <si>
+    <t>P690039</t>
+  </si>
+  <si>
+    <t>Paddington SC074</t>
+  </si>
+  <si>
+    <t>P27029</t>
+  </si>
+  <si>
+    <t>Paddington SC080</t>
+  </si>
+  <si>
+    <t>P4526</t>
+  </si>
+  <si>
+    <t>Brisbane CBD SC082</t>
+  </si>
+  <si>
+    <t>P25304-B</t>
+  </si>
+  <si>
+    <t>Paddington_SC059</t>
+  </si>
+  <si>
+    <t>P3820-K</t>
+  </si>
+  <si>
+    <t>Paddington SC079</t>
+  </si>
+  <si>
+    <t>P54760-D</t>
+  </si>
+  <si>
+    <t>West End_SC069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20529-F </t>
+  </si>
+  <si>
+    <t>Fortitude Valley_SC070</t>
+  </si>
+  <si>
+    <t>P772355</t>
+  </si>
+  <si>
+    <t>West End_SC074</t>
+  </si>
+  <si>
+    <t>Fortitude Valley_SC081</t>
+  </si>
+  <si>
+    <t>P3289-G</t>
+  </si>
+  <si>
+    <t>West End_SC070</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC043</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC045</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC046</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC052</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC055</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC075</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC083</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC096</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC109</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC247</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC049</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC053</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC056</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC060</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC077</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC080</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC086</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC119</t>
+  </si>
+  <si>
+    <t>SAPN</t>
+  </si>
+  <si>
+    <t>Adelaide CBDSC248</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4840,7 @@
   <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4632,6 +4851,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -13202,8 +13422,17 @@
       <c r="G272">
         <v>153.01933600000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I272" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L272" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
@@ -13222,8 +13451,17 @@
       <c r="G273">
         <v>153.00342599999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L273" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
@@ -13242,8 +13480,17 @@
       <c r="G274">
         <v>153.015005</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L274" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
@@ -13262,8 +13509,17 @@
       <c r="G275">
         <v>153.00117800000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L275" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
@@ -13282,8 +13538,17 @@
       <c r="G276">
         <v>153.003332</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L276" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -13302,8 +13567,17 @@
       <c r="G277">
         <v>153.02005800000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L277" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -13322,8 +13596,17 @@
       <c r="G278">
         <v>153.00859</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L278" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
@@ -13342,8 +13625,17 @@
       <c r="G279">
         <v>152.981189</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L279" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
@@ -13362,8 +13654,17 @@
       <c r="G280">
         <v>153.01217399999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L280" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
@@ -13382,8 +13683,17 @@
       <c r="G281">
         <v>153.01087899999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L281" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
@@ -13402,8 +13712,17 @@
       <c r="G282">
         <v>152.99127100000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L282" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
@@ -13422,8 +13741,17 @@
       <c r="G283">
         <v>152.99078299999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I283" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L283" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
@@ -13442,8 +13770,17 @@
       <c r="G284">
         <v>153.00084000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I284" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L284" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
@@ -13462,8 +13799,17 @@
       <c r="G285">
         <v>153.007184</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L285" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
@@ -13482,8 +13828,17 @@
       <c r="G286">
         <v>152.99444299999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L286" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -13502,8 +13857,17 @@
       <c r="G287">
         <v>152.98628600000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L287" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
@@ -13522,8 +13886,17 @@
       <c r="G288">
         <v>152.998414</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L288" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -13542,8 +13915,17 @@
       <c r="G289">
         <v>152.996442</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I289" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L289" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
@@ -13562,8 +13944,17 @@
       <c r="G290">
         <v>153.000674</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L290" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
@@ -13582,8 +13973,17 @@
       <c r="G291">
         <v>153.01547600000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L291" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
@@ -13602,8 +14002,14 @@
       <c r="G292">
         <v>138.59024199999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I292" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L292" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
@@ -13616,14 +14022,23 @@
       <c r="D293">
         <v>5000109</v>
       </c>
+      <c r="E293">
+        <v>10013536</v>
+      </c>
       <c r="F293">
         <v>-34.929341669999999</v>
       </c>
       <c r="G293">
         <v>138.61222219999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I293" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L293" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
@@ -13642,8 +14057,14 @@
       <c r="G294">
         <v>138.61170799999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I294" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L294" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
@@ -13656,14 +14077,23 @@
       <c r="D295">
         <v>5000142</v>
       </c>
+      <c r="E295">
+        <v>10013537</v>
+      </c>
       <c r="F295">
         <v>-34.927414278999997</v>
       </c>
       <c r="G295">
         <v>138.58919060599999</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I295" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
@@ -13676,14 +14106,23 @@
       <c r="D296">
         <v>5000114</v>
       </c>
+      <c r="E296">
+        <v>10013611</v>
+      </c>
       <c r="F296">
         <v>-34.924030999999999</v>
       </c>
       <c r="G296">
         <v>138.60924</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I296" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L296" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
@@ -13696,14 +14135,23 @@
       <c r="D297">
         <v>5000122</v>
       </c>
+      <c r="E297">
+        <v>10013538</v>
+      </c>
       <c r="F297">
         <v>-34.921061999999999</v>
       </c>
       <c r="G297">
         <v>138.61111600000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I297" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L297" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
@@ -13716,14 +14164,23 @@
       <c r="D298">
         <v>5000128</v>
       </c>
+      <c r="E298">
+        <v>10013612</v>
+      </c>
       <c r="F298">
         <v>-34.922465000000003</v>
       </c>
       <c r="G298">
         <v>138.60780199999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I298" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L298" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
@@ -13742,8 +14199,14 @@
       <c r="G299">
         <v>138.590788</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I299" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L299" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
@@ -13762,8 +14225,14 @@
       <c r="G300">
         <v>138.59052500000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I300" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
@@ -13782,8 +14251,14 @@
       <c r="G301">
         <v>138.59431000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I301" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L301" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>302</v>
       </c>
@@ -13796,14 +14271,23 @@
       <c r="D302">
         <v>5000103</v>
       </c>
+      <c r="E302">
+        <v>10013614</v>
+      </c>
       <c r="F302">
         <v>-34.925843999999998</v>
       </c>
       <c r="G302">
         <v>138.59958</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I302" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L302" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>303</v>
       </c>
@@ -13816,14 +14300,23 @@
       <c r="D303">
         <v>5000112</v>
       </c>
+      <c r="E303">
+        <v>10013539</v>
+      </c>
       <c r="F303">
         <v>-34.921885000000003</v>
       </c>
       <c r="G303">
         <v>138.59550899999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I303" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L303" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>304</v>
       </c>
@@ -13841,6 +14334,12 @@
       </c>
       <c r="G304">
         <v>138.59906799999999</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L304" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -13856,11 +14355,20 @@
       <c r="D305">
         <v>5000117</v>
       </c>
+      <c r="E305">
+        <v>10013615</v>
+      </c>
       <c r="F305">
         <v>-34.921464999999998</v>
       </c>
       <c r="G305">
         <v>138.60560699999999</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L305" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -13876,11 +14384,20 @@
       <c r="D306">
         <v>5000124</v>
       </c>
+      <c r="E306">
+        <v>10013616</v>
+      </c>
       <c r="F306">
         <v>-34.925846309999997</v>
       </c>
       <c r="G306">
         <v>138.59695310000001</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L306" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -13896,11 +14413,20 @@
       <c r="D307">
         <v>5000126</v>
       </c>
+      <c r="E307">
+        <v>10013540</v>
+      </c>
       <c r="F307">
         <v>-34.927371000000001</v>
       </c>
       <c r="G307">
         <v>138.597779</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L307" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -13922,6 +14448,12 @@
       <c r="G308">
         <v>138.60553999999999</v>
       </c>
+      <c r="I308" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L308" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
@@ -13942,6 +14474,12 @@
       <c r="G309">
         <v>138.606202</v>
       </c>
+      <c r="I309" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L309" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
@@ -13962,6 +14500,12 @@
       <c r="G310">
         <v>138.606112</v>
       </c>
+      <c r="I310" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
@@ -18885,6 +19429,15 @@
       <c r="G466">
         <v>152.984599</v>
       </c>
+      <c r="H466" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L466" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
@@ -18905,6 +19458,15 @@
       <c r="G467">
         <v>153.00331199999999</v>
       </c>
+      <c r="H467" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L467" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
@@ -18925,6 +19487,15 @@
       <c r="G468">
         <v>153.02613099999999</v>
       </c>
+      <c r="H468" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L468" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
@@ -18945,6 +19516,15 @@
       <c r="G469">
         <v>153.04584299999999</v>
       </c>
+      <c r="H469" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I469" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L469" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
@@ -18965,6 +19545,15 @@
       <c r="G470">
         <v>153.00958800000001</v>
       </c>
+      <c r="H470" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I470" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L470" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
@@ -18985,6 +19574,15 @@
       <c r="G471">
         <v>153.04146</v>
       </c>
+      <c r="H471">
+        <v>60323</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
@@ -18999,9 +19597,6 @@
       <c r="D472">
         <v>3121057</v>
       </c>
-      <c r="E472">
-        <v>0</v>
-      </c>
       <c r="F472">
         <v>-37.829134000000003</v>
       </c>
@@ -19031,9 +19626,6 @@
       <c r="D473">
         <v>3068011</v>
       </c>
-      <c r="E473">
-        <v>0</v>
-      </c>
       <c r="F473">
         <v>-37.785784999999997</v>
       </c>
@@ -19063,9 +19655,6 @@
       <c r="D474">
         <v>3056030</v>
       </c>
-      <c r="E474">
-        <v>0</v>
-      </c>
       <c r="F474">
         <v>-37.772227000000001</v>
       </c>
@@ -19095,9 +19684,6 @@
       <c r="D475">
         <v>3162014</v>
       </c>
-      <c r="E475">
-        <v>0</v>
-      </c>
       <c r="F475">
         <v>-37.886234999999999</v>
       </c>
@@ -19127,9 +19713,6 @@
       <c r="D476">
         <v>3052036</v>
       </c>
-      <c r="E476">
-        <v>0</v>
-      </c>
       <c r="F476">
         <v>-37.778568999999997</v>
       </c>
@@ -19191,9 +19774,6 @@
       <c r="D478">
         <v>3147009</v>
       </c>
-      <c r="E478">
-        <v>0</v>
-      </c>
       <c r="F478">
         <v>-37.869892</v>
       </c>
@@ -19223,9 +19803,6 @@
       <c r="D479">
         <v>3067016</v>
       </c>
-      <c r="E479">
-        <v>0</v>
-      </c>
       <c r="F479">
         <v>-37.805430999999999</v>
       </c>
@@ -19255,9 +19832,6 @@
       <c r="D480">
         <v>3056036</v>
       </c>
-      <c r="E480">
-        <v>0</v>
-      </c>
       <c r="F480">
         <v>-37.765746999999998</v>
       </c>
@@ -19319,9 +19893,6 @@
       <c r="D482">
         <v>3141036</v>
       </c>
-      <c r="E482">
-        <v>0</v>
-      </c>
       <c r="F482">
         <v>-37.832082999999997</v>
       </c>
@@ -19351,9 +19922,6 @@
       <c r="D483">
         <v>3078010</v>
       </c>
-      <c r="E483">
-        <v>0</v>
-      </c>
       <c r="F483">
         <v>-37.768369</v>
       </c>
@@ -19415,9 +19983,6 @@
       <c r="D485">
         <v>3071013</v>
       </c>
-      <c r="E485">
-        <v>0</v>
-      </c>
       <c r="F485">
         <v>-37.760716000000002</v>
       </c>
@@ -19447,9 +20012,6 @@
       <c r="D486">
         <v>3123015</v>
       </c>
-      <c r="E486">
-        <v>0</v>
-      </c>
       <c r="F486">
         <v>-37.819906000000003</v>
       </c>
@@ -19479,9 +20041,6 @@
       <c r="D487">
         <v>3068023</v>
       </c>
-      <c r="E487">
-        <v>0</v>
-      </c>
       <c r="F487">
         <v>-37.790737999999997</v>
       </c>
@@ -19511,9 +20070,6 @@
       <c r="D488">
         <v>3042014</v>
       </c>
-      <c r="E488">
-        <v>0</v>
-      </c>
       <c r="F488">
         <v>-37.735172222000003</v>
       </c>
@@ -19543,9 +20099,6 @@
       <c r="D489">
         <v>3052050</v>
       </c>
-      <c r="E489">
-        <v>0</v>
-      </c>
       <c r="F489">
         <v>-37.779197000000003</v>
       </c>
@@ -19575,9 +20128,6 @@
       <c r="D490">
         <v>3185015</v>
       </c>
-      <c r="E490">
-        <v>0</v>
-      </c>
       <c r="F490">
         <v>-37.885387999999999</v>
       </c>
@@ -19607,9 +20157,6 @@
       <c r="D491">
         <v>3162019</v>
       </c>
-      <c r="E491">
-        <v>0</v>
-      </c>
       <c r="F491">
         <v>-37.881428</v>
       </c>
@@ -19671,9 +20218,6 @@
       <c r="D493">
         <v>3104016</v>
       </c>
-      <c r="E493">
-        <v>0</v>
-      </c>
       <c r="F493">
         <v>-37.799498</v>
       </c>
@@ -19703,9 +20247,6 @@
       <c r="D494">
         <v>3187011</v>
       </c>
-      <c r="E494">
-        <v>0</v>
-      </c>
       <c r="F494">
         <v>-37.915827</v>
       </c>
@@ -19767,9 +20308,6 @@
       <c r="D496">
         <v>3068026</v>
       </c>
-      <c r="E496">
-        <v>0</v>
-      </c>
       <c r="F496">
         <v>-37.788269999999997</v>
       </c>
@@ -20135,6 +20673,15 @@
       <c r="G509">
         <v>153.03130300000001</v>
       </c>
+      <c r="H509" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L509" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
@@ -20146,9 +20693,6 @@
       <c r="D510">
         <v>3182040</v>
       </c>
-      <c r="E510">
-        <v>0</v>
-      </c>
       <c r="F510">
         <v>-37.864393999999997</v>
       </c>
@@ -20175,9 +20719,6 @@
       <c r="D511">
         <v>3031027</v>
       </c>
-      <c r="E511">
-        <v>0</v>
-      </c>
       <c r="F511">
         <v>-37.789611999999998</v>
       </c>
@@ -20204,9 +20745,6 @@
       <c r="D512">
         <v>3181029</v>
       </c>
-      <c r="E512">
-        <v>0</v>
-      </c>
       <c r="F512">
         <v>-37.846608000000003</v>
       </c>
@@ -20233,9 +20771,6 @@
       <c r="D513">
         <v>3143012</v>
       </c>
-      <c r="E513">
-        <v>0</v>
-      </c>
       <c r="F513">
         <v>-37.857624000000001</v>
       </c>
@@ -20262,9 +20797,6 @@
       <c r="D514">
         <v>3051024</v>
       </c>
-      <c r="E514">
-        <v>0</v>
-      </c>
       <c r="F514">
         <v>-37.796762999999999</v>
       </c>
@@ -20320,9 +20852,6 @@
       <c r="D516">
         <v>3141039</v>
       </c>
-      <c r="E516">
-        <v>0</v>
-      </c>
       <c r="F516">
         <v>-37.845480999999999</v>
       </c>
@@ -20349,9 +20878,6 @@
       <c r="D517">
         <v>3145016</v>
       </c>
-      <c r="E517">
-        <v>0</v>
-      </c>
       <c r="F517">
         <v>-37.875813999999998</v>
       </c>
@@ -20407,9 +20933,6 @@
       <c r="D519">
         <v>3032026</v>
       </c>
-      <c r="E519">
-        <v>0</v>
-      </c>
       <c r="F519">
         <v>-37.772906999999996</v>
       </c>
@@ -20436,9 +20959,6 @@
       <c r="D520">
         <v>3051040</v>
       </c>
-      <c r="E520">
-        <v>0</v>
-      </c>
       <c r="F520">
         <v>-37.800697999999997</v>
       </c>
@@ -20465,9 +20985,6 @@
       <c r="D521">
         <v>3051042</v>
       </c>
-      <c r="E521">
-        <v>0</v>
-      </c>
       <c r="F521">
         <v>-37.805301</v>
       </c>
@@ -20494,9 +21011,6 @@
       <c r="D522">
         <v>3166023</v>
       </c>
-      <c r="E522">
-        <v>0</v>
-      </c>
       <c r="F522">
         <v>-37.899239999999999</v>
       </c>
@@ -20522,9 +21036,6 @@
       </c>
       <c r="D523">
         <v>3204020</v>
-      </c>
-      <c r="E523">
-        <v>0</v>
       </c>
       <c r="F523">
         <v>-37.919114499999999</v>

--- a/sitedb/smallcell data/site data.xlsx
+++ b/sitedb/smallcell data/site data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\005 VHA Macro site workflow\Django-Workflow\sitedb\smallcell data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB2FE4-1EB6-45A0-AB44-4D6662C1A21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCE6788-1FA5-499B-B2AD-B6C943364AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7584F600-75EC-4451-A4AD-41A138A88D92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7584F600-75EC-4451-A4AD-41A138A88D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4839,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C967E1B-A923-4B00-A254-9096048CBE27}">
   <dimension ref="A1:L523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
